--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_018.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_018.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295026EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295027EK2.07) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+    <t>(295024EA1.24) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295003AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Load shedding</t>
+  </si>
+  <si>
+    <t>(295037EA1.18) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RPIS</t>
+  </si>
+  <si>
+    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
+  </si>
+  <si>
+    <t>(295019AK2.12) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
   </si>
   <si>
     <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
   </si>
   <si>
-    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(600000AK2.08) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Portable fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295019AK2.12) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(500000EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of hydrogen and oxygen recombiners</t>
-  </si>
-  <si>
-    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295032EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Fire protection system</t>
-  </si>
-  <si>
-    <t>(295020AK2.10) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell equipment/floor drain sumps</t>
-  </si>
-  <si>
-    <t>(295013AA2.01) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(218000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
-  </si>
-  <si>
-    <t>(239002K4.04) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Ensures even distribution of heat load to suppression pool and adequate steam condensing</t>
-  </si>
-  <si>
-    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
-  </si>
-  <si>
-    <t>(262001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliaries system</t>
-  </si>
-  <si>
-    <t>(400000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(215005K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Detectors</t>
-  </si>
-  <si>
-    <t>(215003A2.07) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failed recorder</t>
-  </si>
-  <si>
-    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
-  </si>
-  <si>
-    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291007K1.01) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effect of excessive differential pressure on demineralizer performance</t>
-  </si>
-  <si>
-    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
-  </si>
-  <si>
-    <t>(203000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Testable check valves</t>
-  </si>
-  <si>
-    <t>(223002K4.03) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual initiation capability</t>
-  </si>
-  <si>
-    <t>(259002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Turbine speed control mechanisms: TDRFP</t>
-  </si>
-  <si>
-    <t>(261000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff system</t>
-  </si>
-  <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(209002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Keep fill system</t>
-  </si>
-  <si>
-    <t>(264000A2.08) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation of emergency generator room fire protection system</t>
-  </si>
-  <si>
-    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(218000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve pneumatic supply pressure</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
-  </si>
-  <si>
-    <t>(226001K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) Containment vacuum breakers (Mark III)</t>
-  </si>
-  <si>
-    <t>(201003A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Excessive SCRAM time</t>
-  </si>
-  <si>
-    <t>(215001K2.01) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Shear valves (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(288000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (291008K1.04) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Operation of various push buttons, switches, and handles and the resulting action on breakers</t>
-  </si>
-  <si>
-    <t>(290001A3.03) Ability to monitor automatic operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.7 / 45.7) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(272000A4.01) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Radiation monitoring system recorders</t>
-  </si>
-  <si>
-    <t>(259001K4.09) Knowledge of (SF2 FWS) FEEDWATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation from the reactor vessel (check valves, double valve isolation inside/outside containment)</t>
-  </si>
-  <si>
-    <t>(290002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Thermal limits</t>
-  </si>
-  <si>
-    <t>(239001K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(271000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+    <t xml:space="preserve">(600000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire detectors/heat detectors </t>
+  </si>
+  <si>
+    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295005AK2.10) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295026EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295006AA1.02) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(295011AA1.01) Ability to operate and/or monitor the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling system</t>
+  </si>
+  <si>
+    <t>(295014AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Void concentration</t>
+  </si>
+  <si>
+    <t>(295029EK2.04) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cleanup system</t>
+  </si>
+  <si>
+    <t>(300000K4.06) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining normal instrument air pressure</t>
+  </si>
+  <si>
+    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Turbine startup </t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t>(209001A2.10) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(205000K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(510000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Intake screen differential pressure/level</t>
+  </si>
+  <si>
+    <t>(400000K4.06) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System protection due to reactor coolant system in\u2011leakage</t>
+  </si>
+  <si>
+    <t>(215003K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Changing mode switch position</t>
+  </si>
+  <si>
+    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
+  </si>
+  <si>
+    <t>(264000K2.08) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Cooling water pumps</t>
+  </si>
+  <si>
+    <t>(215005K3.10) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) OPRM</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(261000A2.03) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train temperature</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291005K1.08) MOTORS AND GENERATORS (CFR: 41.7) Consequences of overexcited/underexcited</t>
+  </si>
+  <si>
+    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+  </si>
+  <si>
+    <t>(239002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Automatic depressurization system</t>
+  </si>
+  <si>
+    <t>(209002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(300000K4.05) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining dry air</t>
+  </si>
+  <si>
+    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(217000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Trips and isolations</t>
+  </si>
+  <si>
+    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(290001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 SC) SECONDARY CONTAINMENT and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(202002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor core flow</t>
+  </si>
+  <si>
+    <t>(204000K4.06) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maximize plant efficiency (use of regenerative heat exchanger)</t>
+  </si>
+  <si>
+    <t>(290003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Fire protection system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(233000A3.02) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Pump trip(s) </t>
+  </si>
+  <si>
+    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
+  </si>
+  <si>
+    <t>(288000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Auxiliary building temperature</t>
+  </si>
+  <si>
+    <t>(259001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Feedwater heaters, including heater drain pumps</t>
+  </si>
+  <si>
+    <t>(219000A2.06) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC electrical failures</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A4.07) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve logic reset/bypass/override</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
-  </si>
-  <si>
-    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
-  </si>
-  <si>
-    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A2.06) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of a plant bus</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223001A2.03) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Safety/relief valve leaking or stuck-open</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202001A2.22) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of component cooling water</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292008K1.11) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Discuss the concept of the point of adding heat (POAH) and its impact on reactor power</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(293009K1.34) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Identify the possible effects of fuel densification</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(201001A2.04) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) SCRAM conditions</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
     <t>500000</t>
   </si>
   <si>
-    <t>295022</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
     <t>271000</t>
   </si>
   <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>202001</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201005</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
